--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\ESG\ESG_website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68B87C-BA10-459E-9E01-3E39665810F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F94D125-B1B7-714F-9A59-EA7E301DC6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="767" firstSheet="3" activeTab="3" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="3" activeTab="3" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
   <sheets>
     <sheet name="arxiv" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -699,20 +702,20 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -727,7 +730,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -780,7 +783,7 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
@@ -788,8 +791,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,7 +808,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1107,15 +1110,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.73046875" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.46484375" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1171,14 +1174,14 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
-    <col min="4" max="4" width="57.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>68</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -1211,16 +1214,16 @@
         <v>44533</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="D9" s="4"/>
     </row>
@@ -1238,12 +1241,12 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1260,7 +1263,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -1277,7 +1280,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -1308,13 +1311,13 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>87</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1361,14 +1364,14 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -1439,7 +1442,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>98</v>
       </c>
@@ -1470,9 +1473,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -1528,13 +1531,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>120</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>121</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>122</v>
       </c>
@@ -1604,13 +1607,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.06640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1627,7 +1630,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1661,7 +1664,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -1678,7 +1681,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>131</v>
       </c>
@@ -1695,7 +1698,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>139</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>140</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -1746,7 +1749,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1777,12 +1780,12 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.9296875" customWidth="1"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -1790,7 +1793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>175</v>
       </c>
@@ -1798,7 +1801,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>173</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -1814,7 +1817,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>172</v>
       </c>
@@ -1836,9 +1839,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>153</v>
       </c>
@@ -1846,7 +1849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
@@ -1884,9 +1887,9 @@
       <selection activeCell="A11" sqref="A11:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>&lt;a href="https://www.sasb.org/standards/"&gt;SASB Standards&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>&lt;a href="https://www.cdsb.net/what-we-do/reporting-frameworks/environmental-information-natural-capital"&gt;the CDSB Framework&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>&lt;a href="https://www.globalreporting.org/standards/"&gt;the GRI Standards&lt;/a&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -1984,9 +1987,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2033,12 +2036,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2063,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2082,16 +2085,16 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.06640625" customWidth="1"/>
+    <col min="1" max="1" width="143" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2105,7 +2108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2119,7 +2122,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>180</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>181</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>182</v>
       </c>
@@ -2175,7 +2178,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
     </row>
   </sheetData>
@@ -2192,12 +2195,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -2262,9 +2265,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2281,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2292,7 +2295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -2320,9 +2323,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2339,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2378,13 +2381,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2417,7 +2420,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -2428,7 +2431,7 @@
         <v>44503</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>44489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>57</v>
       </c>
@@ -2450,7 +2453,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -2475,13 +2478,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2492,7 +2495,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>63</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -2514,7 +2517,7 @@
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>44517</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>67</v>
       </c>
@@ -2536,10 +2539,10 @@
         <v>44300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="7"/>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\ESG\ESG_website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF68B87C-BA10-459E-9E01-3E39665810F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B892F97-C11D-6B41-8D37-F8B69CF2D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="767" firstSheet="3" activeTab="3" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
+    <workbookView xWindow="-100" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="18" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
   <sheets>
     <sheet name="arxiv" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,12 @@
     <sheet name="policies" sheetId="19" r:id="rId16"/>
     <sheet name="standards" sheetId="21" r:id="rId17"/>
     <sheet name="index" sheetId="22" r:id="rId18"/>
-    <sheet name="Sheet23" sheetId="23" r:id="rId19"/>
+    <sheet name="database" sheetId="25" r:id="rId19"/>
+    <sheet name="Sheet1" sheetId="24" r:id="rId20"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">database!$A$1:$E$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,8 +45,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="232">
   <si>
     <t>Title</t>
   </si>
@@ -95,115 +102,115 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Author</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Date Posted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3966695"&gt;ESG: Hyperboles and Reality&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Serafeim, George</t>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3793804"&gt;Why is Corporate Virtue in the Eye of the Beholder? The Case of ESG Ratings ()&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Christensen, Dane M. and Serafeim, George and Sikochi, Anywhere</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Organization</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Organization Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/asset-owner-alliance-accelerates-pace-of-change-in-net-zero-targets/9394.article"&gt;Asset Owner Alliance accelerates pace of change in net-zero targets&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UNPRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>NGO/NPO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/do-us-companies-outsource-their-carbon-footprints-to-overseas-suppliers-to-maintain-competitiveness/9363.article"&gt;Do US companies outsource their carbon footprints to overseas suppliers to maintain competitiveness?&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Paper type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/governance-issues/the-investor-case-for-responsible-political-engagement/9366.article"&gt;The investor case for responsible political engagement&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>discussion paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://cre.moodysanalytics.com/insights/research/climate-risk-and-commercial-real-estate-development-patterns/?utm_medium=Collateral&amp;utm_campaign=Blog&amp;utm_source=Affiliate&amp;utm_content=&amp;utm_term=Climate_Risk_Development_Patterns"&gt;Climate Risk and Commercial Real Estate Development Patterns&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>white paper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Moodys</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ESG index service provider</t>
   </si>
   <si>
     <t>Year Published</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch//resources/public/dtc/media/roundup-2020-11-green-transition-en-web.pdf"&gt;SFI Roundup: Finance and the Green Transition&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Swiss Finance Institute</t>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch/resources/public/dtc/media/roundups-spec-iss-july-19-en.pdf"&gt;Practitioner Roundups Special Issue: Can Finance Make the Planet Greener?&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Publisher</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.mohrsiebeck.com/en/book/law-by-algorithm-9783161575099?no_cache=1"&gt;Law by Algorithm&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Horst Eidenmüller, Gerhard Wagner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Mohr Siebeck</t>
   </si>
   <si>
     <t>&lt;a href="https://www.bloomsbury.com/uk/business-law-and-the-transition-to-a-net-zero-economy-9781509958962/"&gt;Business Law and the Transition to a Net Zero Economy&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Andreas Engert (Anthology Editor), Luca Enriques (Anthology Editor), Wolf-Georg Ringe (Anthology Editor), Umakanth Varottil (Anthology Editor), Thom Wetzer (Anthology Editor)</t>
@@ -219,29 +226,19 @@
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/research/podcasts/esg-now/forget-naughty-or-nice-santas-workshops-are-flooding"&gt;Forget Naughty or Nice – Santa’s Workshops are Flooding&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MSCI </t>
   </si>
   <si>
     <t>&lt;a href="https://podcasts.apple.com/us/podcast/episode-5-the-relationship-between-the-e-and-the-s/id1573914445?i=1000545288876"&gt;RBS International 'A Just Transition' Podcast Series: Episode 5: The relationship between the E and the S on Apple Podcasts&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RBS </t>
   </si>
   <si>
-    <t>&lt;a href="</t>
-  </si>
-  <si>
-    <t>"&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="https://play.acast.com/s/behindthemoney/5-insideesg-ascepticvsabeliever-ourexpertsfaceoff"&gt;5 - Inside ESG: A sceptic vs a believer, our experts face off &lt;/a&gt;</t>
   </si>
   <si>
@@ -258,11 +255,11 @@
   </si>
   <si>
     <t>CFA Institute</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ECGI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CNBC</t>
@@ -278,7 +275,7 @@
   </si>
   <si>
     <t>SSF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.youtube.com/watch?v=_8MsC7PFCv4"&gt;ESG investing doesn't work: Former BlackRock CIO&lt;/a&gt;</t>
@@ -288,11 +285,11 @@
   </si>
   <si>
     <t>Tweet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jordanbpeterson</t>
@@ -308,11 +305,11 @@
   </si>
   <si>
     <t>Job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Co-founder, Strategy at Naava | Startup Scientist | #health #nature</t>
@@ -322,7 +319,7 @@
   </si>
   <si>
     <t>Location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Finland</t>
@@ -332,7 +329,7 @@
   </si>
   <si>
     <t>USA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Katie Koch </t>
@@ -348,7 +345,7 @@
   </si>
   <si>
     <t>coolbern</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.reddit.com/r/EsgInvesting/comments/s8kwy9/10_myths_in_energy_and_climate_world_2022_update/"&gt;10 Myths in #energy and climate world (2022 update)&lt;/a&gt;</t>
@@ -358,18 +355,18 @@
   </si>
   <si>
     <t>Position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Organizaion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Invesco</t>
   </si>
   <si>
     <t>United Kingdom</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.responsible-investor.com/jobs/invesco-esg-analyst-2871"&gt;Invesco / ESG Analyst&lt;/a&gt;</t>
@@ -379,11 +376,11 @@
   </si>
   <si>
     <t>RI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Post Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sustainablefinance.ch/upload/cms/user/WerkstudentClientRelations19.01.2022.pdf"&gt;Werkstudent/in in Client Relations (40%)&lt;/a&gt;</t>
@@ -396,27 +393,27 @@
   </si>
   <si>
     <t>Zurich, Switzerland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Training Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CFA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>real-world investing skills, incorporating ESG factors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>understanding RI, applied RI, advanced RI analysis, RI for trustees</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://priacademy.org/pages/about"&gt;https://priacademy.org/pages/about&lt;/a&gt;</t>
@@ -426,49 +423,49 @@
   </si>
   <si>
     <t>Closing Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Job Board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>HPS Investment Partners</t>
   </si>
   <si>
     <t>Inrate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>New York, United States</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>courses, company training</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>certificate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Online</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Organizer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>GRASFI</t>
   </si>
   <si>
     <t>GRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/all-events-and-webinars/the-investor-agenda-investor-net-zero-targets-and-climate-action-plans-the-road-from-cop26/9032.article"&gt;The Investor Agenda: Investor net zero targets &amp; climate action plans - The road from COP26&lt;/a&gt;</t>
@@ -481,22 +478,22 @@
   </si>
   <si>
     <t>Category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>USSIF</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Legislation</t>
   </si>
   <si>
     <t>EU Commission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CDP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.ussif.org//Files/Public_Policy/US%20SIF%20ERISA%20ESG%20comment%20letter%2012-13-21.pdf"&gt;US SIF comment letter to DOL on ESG and proxy voting rulemaking &lt;/a&gt;</t>
@@ -515,26 +512,26 @@
   </si>
   <si>
     <t>Country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Japan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Financial Reporting Council</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SIX Exchange</t>
   </si>
   <si>
     <t>Switzerland</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://ecgi.global/node/9172"&gt;Japan’s Corporate Governance Code - Seeking Sustainable Corporate Growth and Increased Corporate Value over the Mid- to Long-Term&lt;/a&gt;</t>
@@ -547,55 +544,55 @@
   </si>
   <si>
     <t>Policy comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Policy brief</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Corporate goverance code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Ministry of Environment, Energy and Sea (France)</t>
   </si>
   <si>
     <t>France</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>EU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>International</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Science Based Targets Initiative</t>
   </si>
   <si>
     <t>Guidance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://sciencebasedtargets.org/sectors/financial-institutions"&gt;Science Based Targets Initiative&lt;/a&gt;</t>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
   </si>
   <si>
     <t>S&amp;P Global</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/our-solutions/indexes/esg-indexes"&gt;MSCI ESG Indexes&lt;/a&gt;</t>
@@ -608,81 +605,54 @@
   </si>
   <si>
     <t>MSCI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SASB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>IIRC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>CDSB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.sasb.org/standards/</t>
-  </si>
-  <si>
-    <t>SASB Standards</t>
-  </si>
-  <si>
-    <t>https://www.cdsb.net/what-we-do/reporting-frameworks/environmental-information-natural-capital</t>
-  </si>
-  <si>
-    <t>the CDSB Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.globalreporting.org/standards/</t>
-  </si>
-  <si>
-    <t>the GRI Standards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.integratedreporting.org/resource/international-ir-framework/</t>
-  </si>
-  <si>
-    <t>the International Integrated Reporting Framework</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Standards</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.integratedreporting.org/resource/international-ir-framework/"&gt;the International Integrated Reporting Framework&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.cdsb.net/what-we-do/reporting-frameworks/environmental-information-natural-capital"&gt;the CDSB Framework&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.globalreporting.org/standards/"&gt;the GRI Standards&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sasb.org/standards/"&gt;the SASB Standards&lt;/a&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Raphaël Semet, Thierry Roncalli, Lauren Stagnol</t>
   </si>
   <si>
     <t>LBS CCG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>University</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.london.edu/news/shareholder-value-and-stakeholder-capitalism-bridging-the-divide-2001"&gt;Shareholder value and stakeholder capitalism&lt;/a&gt;</t>
@@ -692,6 +662,189 @@
   </si>
   <si>
     <t>&lt;a href="https://www.cdp.net/en/articles/companies/accredited-solutions-providers-can-help-you-adopt-best-practices-and-reduce-your-impacts"&gt;How our accredited solutions providers can help you adopt best practices and reduce your impact on the environment&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>data library</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;World Data Center for Meteorology, Asheville&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>US nation's archive for meteorological data and information</t>
+  </si>
+  <si>
+    <t>the U.S. Department of Commerce (DOC) and NOAA</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;PRISM Spatial Climate Datasets&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>climate observations covering the conterminous US</t>
+  </si>
+  <si>
+    <t>the PRISM Climate Group</t>
+  </si>
+  <si>
+    <t>1895-present</t>
+  </si>
+  <si>
+    <t>land surface stations</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the IPCC Data Distribution Centre&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>1. monthly climate estimates over global land areas
+2. global climate model data
+3. social-economic data and scenarios for use in climate impact assessments
+4. global mean CO2 concentration, global and regional sea-level rise, regional ground-level ozone concentration, sulphate aerosol concentration and sulphur deposition</t>
+  </si>
+  <si>
+    <t>IPCC</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;IRI/LDEO Climate Data Library&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a powerful and freely accessible online data repository and analysis tool that allows a user to view, analyze, and download hundreds of terabytes of climate-related data through a standard web browser</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Global Precipitation Climatology Centre (GPCC)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>global precipitation analyses for monitoring and research of the earth's climate</t>
+  </si>
+  <si>
+    <t>the Deutscher Wetterdienst</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Research Data Archive (RDA)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a large and diverse collection of meteorological and oceanographic observations, operational and reanalysis model outputs, and remote sensing datasets to support atmospheric and geosciences research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Computational and Information Systems Laboratory (CISL) </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Climatic Research Unit (CRU)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>a number of data sets that are widely used in climate research, including the global temperature record used to monitor the state of the climate system</t>
+  </si>
+  <si>
+    <t>University of East Anglia</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the NOAA Physical Sciences Laboratory (PSL)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>PSL archives a wide range of data ranging from gridded climate datasets extending hundreds of years to real-time wind profiler data at a single location.</t>
+  </si>
+  <si>
+    <t>NOAA</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;World Benchmarking Alliance&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>They score and rank companies’ alignment with the transition to a lower carbon world. Their ranking is based on CDP data and publicly available information about those companies.</t>
+  </si>
+  <si>
+    <t>World Benchmarking Alliance</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;CDP&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>climate change and sustainability data reported by more than 1,200 city and regional governments</t>
+  </si>
+  <si>
+    <t>CDP</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Greenhouse Gas Reporting Program (GHGRP)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>annual GHG emissions reported from large GHG emission sources, fuel and industrial gas suppliers, and CO2 injection sites in the United States</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Yale Climate Opinion Maps 2021&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>US public opinion about global warming</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>state, congressional district, and county</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Toxics Release Inventory&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>annual toxic chemical releases reported by US facilities</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Residential Energy Consumption Survey (RECS) &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>energy costs and usage for heating, cooling, appliances and other end uses on the housing unit, usage patterns, and household demographics</t>
+  </si>
+  <si>
+    <t>EIA</t>
+  </si>
+  <si>
+    <t>census region</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Sea Level Rise Inundation&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>potential flooding from future sea level rise—from current mean higher high water to a six-foot rise covering all coastal states and territories except for Alaska</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Science Based Targets initiative (SBTi)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The SBTi’s target dashboard lists company and financial institution commitments and targets since 2015</t>
+  </si>
+  <si>
+    <t>the Science Based Targets initiative (SBTi)</t>
   </si>
 </sst>
 </file>
@@ -699,20 +852,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -727,9 +887,16 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -750,15 +917,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -768,7 +936,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -780,16 +948,25 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{8DD09DE7-0DCD-8742-A9B0-70CCFDC63941}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -805,7 +982,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1107,15 +1284,15 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.73046875" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.46484375" customWidth="1"/>
+    <col min="4" max="4" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,7 +1306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1143,12 +1320,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C3" s="1">
         <v>44482</v>
@@ -1158,7 +1335,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1171,61 +1348,61 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1328125" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
-    <col min="4" max="4" width="57.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7">
         <v>44589</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="7">
         <v>44533</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C4" s="7"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" s="8"/>
       <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1238,64 +1415,64 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
       </c>
       <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
         <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
       </c>
       <c r="C2" s="7">
         <v>44589</v>
       </c>
       <c r="D2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" t="s">
         <v>76</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
       </c>
       <c r="C3" s="7">
         <v>44585</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1308,47 +1485,47 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="7">
         <v>44580</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="7">
         <v>44576</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1361,103 +1538,103 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
         <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1">
         <v>44591</v>
       </c>
       <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" t="s">
         <v>92</v>
       </c>
-      <c r="F2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3" s="1">
         <v>44607</v>
       </c>
       <c r="E3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C4" s="1">
         <v>44573</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1">
         <v>44588</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1470,52 +1647,52 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" t="s">
-        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1528,29 +1705,29 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39.46484375" customWidth="1"/>
-    <col min="3" max="3" width="10.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>117</v>
-      </c>
-      <c r="C1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1559,39 +1736,39 @@
         <v>44593</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1">
         <v>44809</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1">
         <v>44602</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1604,13 +1781,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="27.06640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
     <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1621,150 +1798,150 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C2">
         <v>2021</v>
       </c>
       <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
         <v>142</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C4">
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C5">
         <v>2021</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6">
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1777,53 +1954,53 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.9296875" customWidth="1"/>
+    <col min="1" max="1" width="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1836,142 +2013,348 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
         <v>156</v>
       </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5E5291-BBBD-48EE-8588-DA5D83ED6F03}">
-  <dimension ref="A11:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708919BB-1ECF-C149-90E6-4514E4E287A9}">
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="11"/>
+    <col min="2" max="2" width="44" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="53.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="11"/>
+    <col min="6" max="6" width="34.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="11"/>
+  </cols>
   <sheetData>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" t="str">
-        <f>A11&amp;B11&amp;C11&amp;D11&amp;E11</f>
-        <v>&lt;a href="https://www.sasb.org/standards/"&gt;SASB Standards&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="str">
-        <f>A12&amp;B12&amp;C12&amp;D12&amp;E12</f>
-        <v>&lt;a href="https://www.cdsb.net/what-we-do/reporting-frameworks/environmental-information-natural-capital"&gt;the CDSB Framework&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="str">
-        <f>A13&amp;B13&amp;C13&amp;D13&amp;E13</f>
-        <v>&lt;a href="https://www.globalreporting.org/standards/"&gt;the GRI Standards&lt;/a&gt;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="str">
-        <f>A14&amp;B14&amp;C14&amp;D14&amp;E14</f>
-        <v>&lt;a href="https://www.integratedreporting.org/resource/international-ir-framework/"&gt;the International Integrated Reporting Framework&lt;/a&gt;</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2020</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="E16" s="11">
+        <v>2021</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <autoFilter ref="A1:E17" xr:uid="{695BA9C1-04CF-EE44-9609-4029CAAFE141}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+      <sortCondition ref="A1:A17"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1984,9 +2367,9 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1997,7 +2380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2391,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2020,7 +2403,158 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E01ADF7-FBB4-344D-BA69-FBEB04ABF8B0}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+    </row>
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2033,12 +2567,12 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2049,7 +2583,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -2060,7 +2594,7 @@
         <v>44522</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -2072,7 +2606,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2081,17 +2615,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3626C9C0-D53D-40A1-991C-653D44EFD7D2}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.06640625" customWidth="1"/>
+    <col min="1" max="1" width="143" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2099,13 +2633,13 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -2119,7 +2653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
@@ -2133,26 +2667,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1">
         <v>44585</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1">
         <v>44588</v>
@@ -2161,25 +2695,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1">
         <v>44586</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2192,12 +2726,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2214,7 +2748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -2231,7 +2765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2783,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2262,9 +2796,9 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2278,7 +2812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2292,7 +2826,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -2307,7 +2841,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2320,9 +2854,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -2336,7 +2870,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>39</v>
       </c>
@@ -2350,7 +2884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
@@ -2365,7 +2899,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2378,13 +2912,13 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="84.796875" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2395,7 +2929,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>47</v>
       </c>
@@ -2406,7 +2940,7 @@
         <v>44582</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2417,31 +2951,31 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="7">
         <v>44503</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" s="7">
         <v>44489</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -2450,19 +2984,19 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="7">
         <v>44580</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2475,13 +3009,13 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2492,58 +3026,58 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C2" s="7">
         <v>44307</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="7">
         <v>44371</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="7">
         <v>44517</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7">
         <v>44300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B892F97-C11D-6B41-8D37-F8B69CF2D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7167B2DC-CA9D-2D44-8E8D-03C37496442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="18" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="18" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
   <sheets>
     <sheet name="arxiv" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="Sheet1" sheetId="24" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">database!$A$1:$E$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">database!$A$1:$F$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="231">
   <si>
     <t>Title</t>
   </si>
@@ -102,115 +102,115 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Author</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Date Posted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3966695"&gt;ESG: Hyperboles and Reality&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Serafeim, George</t>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3793804"&gt;Why is Corporate Virtue in the Eye of the Beholder? The Case of ESG Ratings ()&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Christensen, Dane M. and Serafeim, George and Sikochi, Anywhere</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Organization</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Organization Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/asset-owner-alliance-accelerates-pace-of-change-in-net-zero-targets/9394.article"&gt;Asset Owner Alliance accelerates pace of change in net-zero targets&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UNPRI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>NGO/NPO</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/do-us-companies-outsource-their-carbon-footprints-to-overseas-suppliers-to-maintain-competitiveness/9363.article"&gt;Do US companies outsource their carbon footprints to overseas suppliers to maintain competitiveness?&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Paper type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/governance-issues/the-investor-case-for-responsible-political-engagement/9366.article"&gt;The investor case for responsible political engagement&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>discussion paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://cre.moodysanalytics.com/insights/research/climate-risk-and-commercial-real-estate-development-patterns/?utm_medium=Collateral&amp;utm_campaign=Blog&amp;utm_source=Affiliate&amp;utm_content=&amp;utm_term=Climate_Risk_Development_Patterns"&gt;Climate Risk and Commercial Real Estate Development Patterns&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>white paper</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Moodys</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ESG index service provider</t>
   </si>
   <si>
     <t>Year Published</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch//resources/public/dtc/media/roundup-2020-11-green-transition-en-web.pdf"&gt;SFI Roundup: Finance and the Green Transition&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Swiss Finance Institute</t>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch/resources/public/dtc/media/roundups-spec-iss-july-19-en.pdf"&gt;Practitioner Roundups Special Issue: Can Finance Make the Planet Greener?&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Publisher</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.mohrsiebeck.com/en/book/law-by-algorithm-9783161575099?no_cache=1"&gt;Law by Algorithm&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Horst Eidenmüller, Gerhard Wagner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Mohr Siebeck</t>
   </si>
   <si>
     <t>&lt;a href="https://www.bloomsbury.com/uk/business-law-and-the-transition-to-a-net-zero-economy-9781509958962/"&gt;Business Law and the Transition to a Net Zero Economy&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Andreas Engert (Anthology Editor), Luca Enriques (Anthology Editor), Wolf-Georg Ringe (Anthology Editor), Umakanth Varottil (Anthology Editor), Thom Wetzer (Anthology Editor)</t>
@@ -226,14 +226,14 @@
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/research/podcasts/esg-now/forget-naughty-or-nice-santas-workshops-are-flooding"&gt;Forget Naughty or Nice – Santa’s Workshops are Flooding&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MSCI </t>
   </si>
   <si>
     <t>&lt;a href="https://podcasts.apple.com/us/podcast/episode-5-the-relationship-between-the-e-and-the-s/id1573914445?i=1000545288876"&gt;RBS International 'A Just Transition' Podcast Series: Episode 5: The relationship between the E and the S on Apple Podcasts&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RBS </t>
@@ -255,11 +255,11 @@
   </si>
   <si>
     <t>CFA Institute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ECGI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CNBC</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>SSF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.youtube.com/watch?v=_8MsC7PFCv4"&gt;ESG investing doesn't work: Former BlackRock CIO&lt;/a&gt;</t>
@@ -285,11 +285,11 @@
   </si>
   <si>
     <t>Tweet</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jordanbpeterson</t>
@@ -305,11 +305,11 @@
   </si>
   <si>
     <t>Job</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Co-founder, Strategy at Naava | Startup Scientist | #health #nature</t>
@@ -319,7 +319,7 @@
   </si>
   <si>
     <t>Location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Finland</t>
@@ -329,7 +329,7 @@
   </si>
   <si>
     <t>USA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Katie Koch </t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>coolbern</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.reddit.com/r/EsgInvesting/comments/s8kwy9/10_myths_in_energy_and_climate_world_2022_update/"&gt;10 Myths in #energy and climate world (2022 update)&lt;/a&gt;</t>
@@ -355,18 +355,18 @@
   </si>
   <si>
     <t>Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Organizaion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Invesco</t>
   </si>
   <si>
     <t>United Kingdom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.responsible-investor.com/jobs/invesco-esg-analyst-2871"&gt;Invesco / ESG Analyst&lt;/a&gt;</t>
@@ -376,11 +376,11 @@
   </si>
   <si>
     <t>RI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Post Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sustainablefinance.ch/upload/cms/user/WerkstudentClientRelations19.01.2022.pdf"&gt;Werkstudent/in in Client Relations (40%)&lt;/a&gt;</t>
@@ -393,79 +393,65 @@
   </si>
   <si>
     <t>Zurich, Switzerland</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Training Type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CFA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>real-world investing skills, incorporating ESG factors</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>understanding RI, applied RI, advanced RI analysis, RI for trustees</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href="https://priacademy.org/pages/about"&gt;https://priacademy.org/pages/about&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.cfainstitute.org/en/programs/esg-investing"&gt;https://www.cfainstitute.org/en/programs/esg-investing&lt;/a&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Closing Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Job Board</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>HPS Investment Partners</t>
   </si>
   <si>
     <t>Inrate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>New York, United States</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>courses, company training</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>certificate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Online</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Organizer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>GRASFI</t>
   </si>
   <si>
     <t>GRI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/all-events-and-webinars/the-investor-agenda-investor-net-zero-targets-and-climate-action-plans-the-road-from-cop26/9032.article"&gt;The Investor Agenda: Investor net zero targets &amp; climate action plans - The road from COP26&lt;/a&gt;</t>
@@ -478,22 +464,22 @@
   </si>
   <si>
     <t>Category</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>USSIF</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Legislation</t>
   </si>
   <si>
     <t>EU Commission</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CDP</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.ussif.org//Files/Public_Policy/US%20SIF%20ERISA%20ESG%20comment%20letter%2012-13-21.pdf"&gt;US SIF comment letter to DOL on ESG and proxy voting rulemaking &lt;/a&gt;</t>
@@ -512,26 +498,26 @@
   </si>
   <si>
     <t>Country</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Japan</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Financial Reporting Council</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>UK</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SIX Exchange</t>
   </si>
   <si>
     <t>Switzerland</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://ecgi.global/node/9172"&gt;Japan’s Corporate Governance Code - Seeking Sustainable Corporate Growth and Increased Corporate Value over the Mid- to Long-Term&lt;/a&gt;</t>
@@ -544,55 +530,55 @@
   </si>
   <si>
     <t>Policy comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Policy brief</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Corporate goverance code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Ministry of Environment, Energy and Sea (France)</t>
   </si>
   <si>
     <t>France</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>International</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Framework</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Science Based Targets Initiative</t>
   </si>
   <si>
     <t>Guidance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://sciencebasedtargets.org/sectors/financial-institutions"&gt;Science Based Targets Initiative&lt;/a&gt;</t>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
   </si>
   <si>
     <t>S&amp;P Global</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/our-solutions/indexes/esg-indexes"&gt;MSCI ESG Indexes&lt;/a&gt;</t>
@@ -605,54 +591,34 @@
   </si>
   <si>
     <t>MSCI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>SASB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>IIRC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CDSB</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Standards</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.integratedreporting.org/resource/international-ir-framework/"&gt;the International Integrated Reporting Framework&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.cdsb.net/what-we-do/reporting-frameworks/environmental-information-natural-capital"&gt;the CDSB Framework&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.globalreporting.org/standards/"&gt;the GRI Standards&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.sasb.org/standards/"&gt;the SASB Standards&lt;/a&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Raphaël Semet, Thierry Roncalli, Lauren Stagnol</t>
   </si>
   <si>
     <t>LBS CCG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>University</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.london.edu/news/shareholder-value-and-stakeholder-capitalism-bridging-the-divide-2001"&gt;Shareholder value and stakeholder capitalism&lt;/a&gt;</t>
@@ -662,9 +628,6 @@
   </si>
   <si>
     <t>&lt;a href="https://www.cdp.net/en/articles/companies/accredited-solutions-providers-can-help-you-adopt-best-practices-and-reduce-your-impacts"&gt;How our accredited solutions providers can help you adopt best practices and reduce your impact on the environment&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>Name</t>
@@ -845,6 +808,33 @@
   </si>
   <si>
     <t>the Science Based Targets initiative (SBTi)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.sasb.org/standards/"&gt;SASB Standards&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.cdsb.net/what-we-do/reporting-frameworks/environmental-information-natural-capital"&gt;CDSB Framework&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.globalreporting.org/standards/"&gt;GRI Standards&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.integratedreporting.org/resource/international-ir-framework/"&gt;International Integrated Reporting Framework&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://priacademy.org/pages/about"&gt;PRI Academy&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.cfainstitute.org/en/programs/esg-investing"&gt;The CFA Institute Certificate in ESG Investing&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Training</t>
   </si>
 </sst>
 </file>
@@ -854,13 +844,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -921,12 +918,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -951,17 +948,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1325,7 +1323,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C3" s="1">
         <v>44482</v>
@@ -1335,7 +1333,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1402,7 +1400,7 @@
       <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1472,7 +1470,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1525,7 +1523,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1535,7 +1533,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,13 +1554,13 @@
         <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E1" t="s">
         <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1587,13 +1585,13 @@
         <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="1">
         <v>44607</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
         <v>92</v>
@@ -1604,7 +1602,7 @@
         <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1">
         <v>44573</v>
@@ -1621,7 +1619,7 @@
         <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1">
         <v>44588</v>
@@ -1634,7 +1632,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1644,55 +1642,55 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="C1" t="s">
         <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>102</v>
+        <v>106</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>228</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>103</v>
+      <c r="D2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1716,10 +1714,10 @@
         <v>66</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
         <v>75</v>
@@ -1727,7 +1725,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>24</v>
@@ -1736,15 +1734,15 @@
         <v>44593</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C3" s="1">
         <v>44809</v>
@@ -1755,20 +1753,20 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1">
         <v>44602</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1798,24 +1796,24 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C2">
         <v>2021</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>78</v>
@@ -1823,125 +1821,125 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C3">
         <v>2015</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C4">
         <v>2021</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C5">
         <v>2021</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6">
         <v>2021</v>
       </c>
       <c r="D6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C7">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C8">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C9">
         <v>2021</v>
       </c>
       <c r="D9" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1951,7 +1949,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1961,7 +1959,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -1969,38 +1967,38 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>225</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2010,14 +2008,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2025,333 +2023,333 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708919BB-1ECF-C149-90E6-4514E4E287A9}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="11"/>
     <col min="2" max="2" width="44" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.6640625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="53.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="11"/>
+    <col min="3" max="3" width="53.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="11"/>
+    <col min="5" max="5" width="89.6640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="34.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="11"/>
+    <col min="9" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>172</v>
+      <c r="A1" s="13" t="s">
+        <v>227</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>181</v>
+        <v>169</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>183</v>
+        <v>172</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>178</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>192</v>
+        <v>180</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>195</v>
+        <v>183</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>198</v>
+        <v>186</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>201</v>
+        <v>189</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>204</v>
+        <v>192</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>207</v>
+        <v>195</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>210</v>
+        <v>198</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="11">
+        <v>201</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="11">
         <v>2020</v>
       </c>
+      <c r="E12" s="12" t="s">
+        <v>202</v>
+      </c>
       <c r="F12" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="11">
+        <v>206</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="11">
         <v>2021</v>
       </c>
+      <c r="E13" s="12" t="s">
+        <v>207</v>
+      </c>
       <c r="F13" s="11" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>211</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="D15" s="11">
+        <v>2021</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="E15" s="11">
-        <v>2021</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="E16" s="11">
+        <v>216</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="11">
         <v>2021</v>
       </c>
+      <c r="E16" s="12" t="s">
+        <v>217</v>
+      </c>
       <c r="F16" s="11" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>231</v>
+        <v>219</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E17" xr:uid="{695BA9C1-04CF-EE44-9609-4029CAAFE141}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E17">
+  <autoFilter ref="A1:G17" xr:uid="{695BA9C1-04CF-EE44-9609-4029CAAFE141}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
       <sortCondition ref="A1:A17"/>
     </sortState>
   </autoFilter>
@@ -2403,7 +2401,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2606,7 +2604,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2633,7 +2631,7 @@
         <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
         <v>22</v>
@@ -2669,24 +2667,24 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C4" s="1">
         <v>44585</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C5" s="1">
         <v>44588</v>
@@ -2697,23 +2695,23 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1">
         <v>44586</v>
       </c>
       <c r="D6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2783,7 +2781,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2841,7 +2839,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2899,7 +2897,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2996,7 +2994,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3077,7 +3075,7 @@
       <c r="C7" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7167B2DC-CA9D-2D44-8E8D-03C37496442A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393108F-900C-7241-8CC9-6A08B25DFE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="18" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="13" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
   <sheets>
     <sheet name="arxiv" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="243">
   <si>
     <t>Title</t>
   </si>
@@ -835,6 +835,42 @@
   </si>
   <si>
     <t>Training</t>
+  </si>
+  <si>
+    <t>https://www.icgn.org/education</t>
+  </si>
+  <si>
+    <t>courses, in-house training, academic days and publications</t>
+  </si>
+  <si>
+    <t>ICGN</t>
+  </si>
+  <si>
+    <t>encouraging best practice and informing members about key developments in corporate governance and investor stewardship</t>
+  </si>
+  <si>
+    <t>https://sustainability-academy.org/</t>
+  </si>
+  <si>
+    <t>certified online courses</t>
+  </si>
+  <si>
+    <t>Sustainability Academy</t>
+  </si>
+  <si>
+    <t>keep up to date with current legislation, global trends and best cases of Sustainability and Corporate Responsibility</t>
+  </si>
+  <si>
+    <t>https://www.ussif.org/courses</t>
+  </si>
+  <si>
+    <t>USSIF</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>Sustainable Investment, Fundamentals of Sustainable and Impact Investment,Chartered SRI CounselorSM (CSRIC®)</t>
   </si>
 </sst>
 </file>
@@ -1533,12 +1569,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="97.6640625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" customWidth="1"/>
   </cols>
@@ -1639,13 +1675,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B0918-D333-4FAA-A239-B24EBC51EF6F}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1689,8 +1729,55 @@
         <v>99</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{F1A5D0A2-673E-304F-A897-067FEE624982}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{1CBAF31D-F364-6243-94A5-212EBD76A6D1}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{BEC593FE-19A8-534E-A3D2-6264F07CC3B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2055,8 +2142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708919BB-1ECF-C149-90E6-4514E4E287A9}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6393108F-900C-7241-8CC9-6A08B25DFE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F3C6A-9FCB-0B4A-A970-61E1A952BD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="13" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="245">
   <si>
     <t>Title</t>
   </si>
@@ -871,6 +871,12 @@
   </si>
   <si>
     <t>Sustainable Investment, Fundamentals of Sustainable and Impact Investment,Chartered SRI CounselorSM (CSRIC®)</t>
+  </si>
+  <si>
+    <t>https://www.sustainablefinance.ch/en/education-_content---1--1081.html</t>
+  </si>
+  <si>
+    <t>SSF</t>
   </si>
 </sst>
 </file>
@@ -1675,10 +1681,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B0918-D333-4FAA-A239-B24EBC51EF6F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1771,12 +1777,21 @@
         <v>242</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{F1A5D0A2-673E-304F-A897-067FEE624982}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{1CBAF31D-F364-6243-94A5-212EBD76A6D1}"/>
     <hyperlink ref="B6" r:id="rId3" xr:uid="{BEC593FE-19A8-534E-A3D2-6264F07CC3B6}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{5D90A3CA-4E93-B047-909C-C24D7671ACAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96F3C6A-9FCB-0B4A-A970-61E1A952BD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8025C89-1E6A-DB4E-9562-1990E25FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20720" windowHeight="13280" tabRatio="767" firstSheet="8" activeTab="13" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" tabRatio="767" activeTab="18" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
   <sheets>
     <sheet name="arxiv" sheetId="1" r:id="rId1"/>
@@ -102,115 +102,115 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Author</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date Posted</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3966695"&gt;ESG: Hyperboles and Reality&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Serafeim, George</t>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3793804"&gt;Why is Corporate Virtue in the Eye of the Beholder? The Case of ESG Ratings ()&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Christensen, Dane M. and Serafeim, George and Sikochi, Anywhere</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Organization</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Organization Type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/asset-owner-alliance-accelerates-pace-of-change-in-net-zero-targets/9394.article"&gt;Asset Owner Alliance accelerates pace of change in net-zero targets&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UNPRI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>NGO/NPO</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/do-us-companies-outsource-their-carbon-footprints-to-overseas-suppliers-to-maintain-competitiveness/9363.article"&gt;Do US companies outsource their carbon footprints to overseas suppliers to maintain competitiveness?&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Paper type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/governance-issues/the-investor-case-for-responsible-political-engagement/9366.article"&gt;The investor case for responsible political engagement&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>discussion paper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://cre.moodysanalytics.com/insights/research/climate-risk-and-commercial-real-estate-development-patterns/?utm_medium=Collateral&amp;utm_campaign=Blog&amp;utm_source=Affiliate&amp;utm_content=&amp;utm_term=Climate_Risk_Development_Patterns"&gt;Climate Risk and Commercial Real Estate Development Patterns&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>white paper</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Moodys</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ESG index service provider</t>
   </si>
   <si>
     <t>Year Published</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch//resources/public/dtc/media/roundup-2020-11-green-transition-en-web.pdf"&gt;SFI Roundup: Finance and the Green Transition&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Swiss Finance Institute</t>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch/resources/public/dtc/media/roundups-spec-iss-july-19-en.pdf"&gt;Practitioner Roundups Special Issue: Can Finance Make the Planet Greener?&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Publisher</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.mohrsiebeck.com/en/book/law-by-algorithm-9783161575099?no_cache=1"&gt;Law by Algorithm&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Horst Eidenmüller, Gerhard Wagner</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Mohr Siebeck</t>
   </si>
   <si>
     <t>&lt;a href="https://www.bloomsbury.com/uk/business-law-and-the-transition-to-a-net-zero-economy-9781509958962/"&gt;Business Law and the Transition to a Net Zero Economy&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Andreas Engert (Anthology Editor), Luca Enriques (Anthology Editor), Wolf-Georg Ringe (Anthology Editor), Umakanth Varottil (Anthology Editor), Thom Wetzer (Anthology Editor)</t>
@@ -226,14 +226,14 @@
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/research/podcasts/esg-now/forget-naughty-or-nice-santas-workshops-are-flooding"&gt;Forget Naughty or Nice – Santa’s Workshops are Flooding&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MSCI </t>
   </si>
   <si>
     <t>&lt;a href="https://podcasts.apple.com/us/podcast/episode-5-the-relationship-between-the-e-and-the-s/id1573914445?i=1000545288876"&gt;RBS International 'A Just Transition' Podcast Series: Episode 5: The relationship between the E and the S on Apple Podcasts&lt;/a&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RBS </t>
@@ -255,11 +255,11 @@
   </si>
   <si>
     <t>CFA Institute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ECGI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CNBC</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>SSF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.youtube.com/watch?v=_8MsC7PFCv4"&gt;ESG investing doesn't work: Former BlackRock CIO&lt;/a&gt;</t>
@@ -285,11 +285,11 @@
   </si>
   <si>
     <t>Tweet</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>jordanbpeterson</t>
@@ -305,11 +305,11 @@
   </si>
   <si>
     <t>Job</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Co-founder, Strategy at Naava | Startup Scientist | #health #nature</t>
@@ -319,7 +319,7 @@
   </si>
   <si>
     <t>Location</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Finland</t>
@@ -329,7 +329,7 @@
   </si>
   <si>
     <t>USA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Katie Koch </t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>coolbern</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.reddit.com/r/EsgInvesting/comments/s8kwy9/10_myths_in_energy_and_climate_world_2022_update/"&gt;10 Myths in #energy and climate world (2022 update)&lt;/a&gt;</t>
@@ -355,18 +355,18 @@
   </si>
   <si>
     <t>Position</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Organizaion</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Invesco</t>
   </si>
   <si>
     <t>United Kingdom</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.responsible-investor.com/jobs/invesco-esg-analyst-2871"&gt;Invesco / ESG Analyst&lt;/a&gt;</t>
@@ -376,11 +376,11 @@
   </si>
   <si>
     <t>RI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Post Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sustainablefinance.ch/upload/cms/user/WerkstudentClientRelations19.01.2022.pdf"&gt;Werkstudent/in in Client Relations (40%)&lt;/a&gt;</t>
@@ -393,65 +393,65 @@
   </si>
   <si>
     <t>Zurich, Switzerland</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CFA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>real-world investing skills, incorporating ESG factors</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>understanding RI, applied RI, advanced RI analysis, RI for trustees</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Closing Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Job Board</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>HPS Investment Partners</t>
   </si>
   <si>
     <t>Inrate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>New York, United States</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>courses, company training</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>certificate</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Online</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Organizer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>GRASFI</t>
   </si>
   <si>
     <t>GRI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/all-events-and-webinars/the-investor-agenda-investor-net-zero-targets-and-climate-action-plans-the-road-from-cop26/9032.article"&gt;The Investor Agenda: Investor net zero targets &amp; climate action plans - The road from COP26&lt;/a&gt;</t>
@@ -464,22 +464,22 @@
   </si>
   <si>
     <t>Category</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>USSIF</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Legislation</t>
   </si>
   <si>
     <t>EU Commission</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CDP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.ussif.org//Files/Public_Policy/US%20SIF%20ERISA%20ESG%20comment%20letter%2012-13-21.pdf"&gt;US SIF comment letter to DOL on ESG and proxy voting rulemaking &lt;/a&gt;</t>
@@ -498,26 +498,26 @@
   </si>
   <si>
     <t>Country</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Japan</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Financial Reporting Council</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>UK</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SIX Exchange</t>
   </si>
   <si>
     <t>Switzerland</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://ecgi.global/node/9172"&gt;Japan’s Corporate Governance Code - Seeking Sustainable Corporate Growth and Increased Corporate Value over the Mid- to Long-Term&lt;/a&gt;</t>
@@ -530,55 +530,55 @@
   </si>
   <si>
     <t>Policy comment</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Policy brief</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Corporate goverance code</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Ministry of Environment, Energy and Sea (France)</t>
   </si>
   <si>
     <t>France</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>EU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>International</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Framework</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Science Based Targets Initiative</t>
   </si>
   <si>
     <t>Guidance</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://sciencebasedtargets.org/sectors/financial-institutions"&gt;Science Based Targets Initiative&lt;/a&gt;</t>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
   </si>
   <si>
     <t>S&amp;P Global</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/our-solutions/indexes/esg-indexes"&gt;MSCI ESG Indexes&lt;/a&gt;</t>
@@ -591,34 +591,34 @@
   </si>
   <si>
     <t>MSCI</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SASB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>IIRC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CDSB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Raphaël Semet, Thierry Roncalli, Lauren Stagnol</t>
   </si>
   <si>
     <t>LBS CCG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>University</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.london.edu/news/shareholder-value-and-stakeholder-capitalism-bridging-the-divide-2001"&gt;Shareholder value and stakeholder capitalism&lt;/a&gt;</t>
@@ -657,9 +657,6 @@
     <t>the U.S. Department of Commerce (DOC) and NOAA</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;PRISM Spatial Climate Datasets&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>climate observations covering the conterminous US</t>
   </si>
   <si>
@@ -670,9 +667,6 @@
   </si>
   <si>
     <t>land surface stations</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the IPCC Data Distribution Centre&lt;/a&gt;</t>
   </si>
   <si>
     <t>1. monthly climate estimates over global land areas
@@ -684,72 +678,48 @@
     <t>IPCC</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;IRI/LDEO Climate Data Library&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>a powerful and freely accessible online data repository and analysis tool that allows a user to view, analyze, and download hundreds of terabytes of climate-related data through a standard web browser</t>
   </si>
   <si>
     <t>Columbia University</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Global Precipitation Climatology Centre (GPCC)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>global precipitation analyses for monitoring and research of the earth's climate</t>
   </si>
   <si>
     <t>the Deutscher Wetterdienst</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Research Data Archive (RDA)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>a large and diverse collection of meteorological and oceanographic observations, operational and reanalysis model outputs, and remote sensing datasets to support atmospheric and geosciences research</t>
   </si>
   <si>
     <t xml:space="preserve">the Computational and Information Systems Laboratory (CISL) </t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Climatic Research Unit (CRU)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>a number of data sets that are widely used in climate research, including the global temperature record used to monitor the state of the climate system</t>
   </si>
   <si>
     <t>University of East Anglia</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the NOAA Physical Sciences Laboratory (PSL)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>PSL archives a wide range of data ranging from gridded climate datasets extending hundreds of years to real-time wind profiler data at a single location.</t>
   </si>
   <si>
     <t>NOAA</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;World Benchmarking Alliance&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>They score and rank companies’ alignment with the transition to a lower carbon world. Their ranking is based on CDP data and publicly available information about those companies.</t>
   </si>
   <si>
     <t>World Benchmarking Alliance</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;CDP&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>climate change and sustainability data reported by more than 1,200 city and regional governments</t>
   </si>
   <si>
     <t>CDP</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Greenhouse Gas Reporting Program (GHGRP)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>annual GHG emissions reported from large GHG emission sources, fuel and industrial gas suppliers, and CO2 injection sites in the United States</t>
   </si>
   <si>
@@ -762,9 +732,6 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Yale Climate Opinion Maps 2021&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>US public opinion about global warming</t>
   </si>
   <si>
@@ -774,15 +741,9 @@
     <t>state, congressional district, and county</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Toxics Release Inventory&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>annual toxic chemical releases reported by US facilities</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Residential Energy Consumption Survey (RECS) &lt;/a&gt;</t>
-  </si>
-  <si>
     <t>energy costs and usage for heating, cooling, appliances and other end uses on the housing unit, usage patterns, and household demographics</t>
   </si>
   <si>
@@ -792,18 +753,12 @@
     <t>census region</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;Sea Level Rise Inundation&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>potential flooding from future sea level rise—from current mean higher high water to a six-foot rise covering all coastal states and territories except for Alaska</t>
   </si>
   <si>
     <t>community</t>
   </si>
   <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;the Science Based Targets initiative (SBTi)&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>The SBTi’s target dashboard lists company and financial institution commitments and targets since 2015</t>
   </si>
   <si>
@@ -877,6 +832,51 @@
   </si>
   <si>
     <t>SSF</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.prism.oregonstate.edu"&gt;PRISM Spatial Climate Datasets&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ipcc-data.org/ar6landing.html"&gt;the IPCC Data Distribution Centre&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://iridl.ldeo.columbia.edu/index.html?Set-Language=en"&gt;IRI/LDEO Climate Data Library&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://climatedataguide.ucar.edu/climate-data/gpcc-global-precipitation-climatology-centre"&gt;Global Precipitation Climatology Centre (GPCC)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://rda.ucar.edu"&gt;the Research Data Archive (RDA)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://crudata.uea.ac.uk/cru/data/hrg/"&gt;the Climatic Research Unit (CRU)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://psl.noaa.gov/data/index.html"&gt;the NOAA Physical Sciences Laboratory (PSL)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.worldbenchmarkingalliance.org"&gt;World Benchmarking Alliance&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.cdp.net/en"&gt;CDP&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.epa.gov/ghgreporting"&gt;Greenhouse Gas Reporting Program (GHGRP)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://climatecommunication.yale.edu/visualizations-data/ycom-us/"&gt;Yale Climate Opinion Maps 2021&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.epa.gov/toxics-release-inventory-tri-program"&gt;the Toxics Release Inventory&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.eia.gov/consumption/residential/"&gt;the Residential Energy Consumption Survey (RECS) &lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://coast.noaa.gov/digitalcoast/data/slr.html"&gt;Sea Level Rise Inundation&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://sciencebasedtargets.org"&gt;the Science Based Targets initiative (SBTi)&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -886,13 +886,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -960,12 +967,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,7 +982,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -990,18 +997,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1375,7 +1386,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1442,7 +1453,7 @@
       <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1512,7 +1523,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1565,7 +1576,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1674,7 +1685,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1683,7 +1694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50B0918-D333-4FAA-A239-B24EBC51EF6F}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1695,10 +1706,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C1" t="s">
         <v>87</v>
@@ -1712,7 +1723,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1726,7 +1737,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
         <v>98</v>
@@ -1737,56 +1748,56 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{F1A5D0A2-673E-304F-A897-067FEE624982}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{1CBAF31D-F364-6243-94A5-212EBD76A6D1}"/>
@@ -1868,7 +1879,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2041,7 +2052,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2061,7 +2072,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2069,7 +2080,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -2077,7 +2088,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>155</v>
@@ -2085,7 +2096,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
@@ -2093,14 +2104,14 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2148,7 +2159,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2157,8 +2168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708919BB-1ECF-C149-90E6-4514E4E287A9}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2174,7 +2185,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>163</v>
@@ -2196,7 +2207,7 @@
       <c r="A2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="14" t="s">
         <v>169</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2206,247 +2217,247 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>179</v>
-      </c>
       <c r="E4" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>180</v>
+      <c r="B5" s="14" t="s">
+        <v>232</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>185</v>
+      <c r="B6" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>181</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>186</v>
+      <c r="B7" s="14" t="s">
+        <v>234</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>189</v>
+      <c r="B8" s="14" t="s">
+        <v>235</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>192</v>
+      <c r="B9" s="14" t="s">
+        <v>236</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>195</v>
+      <c r="B10" s="14" t="s">
+        <v>237</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>198</v>
+      <c r="B11" s="14" t="s">
+        <v>238</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>201</v>
+      <c r="B12" s="14" t="s">
+        <v>239</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D12" s="11">
         <v>2020</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>206</v>
+        <v>195</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>240</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="D13" s="11">
         <v>2021</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>210</v>
+        <v>195</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>241</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>242</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="D15" s="11">
         <v>2021</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>216</v>
+        <v>195</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>243</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D16" s="11">
         <v>2021</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2503,7 +2514,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2706,7 +2717,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2813,7 +2824,7 @@
       <c r="B10" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2883,7 +2894,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2941,7 +2952,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2999,7 +3010,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3096,7 +3107,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3177,7 +3188,7 @@
       <c r="C7" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tj_hou/Documents/ESG_Project/ESG_website_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8025C89-1E6A-DB4E-9562-1990E25FEB9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37230378-5875-3B41-BA2F-0D60C55B835B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" tabRatio="767" activeTab="18" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15520" tabRatio="767" firstSheet="3" activeTab="16" xr2:uid="{21188EBB-03F7-4643-B426-6DBAB4FD05DB}"/>
   </bookViews>
   <sheets>
     <sheet name="arxiv" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="261">
   <si>
     <t>Title</t>
   </si>
@@ -102,115 +102,115 @@
   </si>
   <si>
     <t>Title</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Author</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Date Posted</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3966695"&gt;ESG: Hyperboles and Reality&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Serafeim, George</t>
   </si>
   <si>
     <t>&lt;a href="https://papers.ssrn.com/sol3/papers.cfm?abstract_id=3793804"&gt;Why is Corporate Virtue in the Eye of the Beholder? The Case of ESG Ratings ()&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Christensen, Dane M. and Serafeim, George and Sikochi, Anywhere</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Organization</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Organization Type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/asset-owner-alliance-accelerates-pace-of-change-in-net-zero-targets/9394.article"&gt;Asset Owner Alliance accelerates pace of change in net-zero targets&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UNPRI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NGO/NPO</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/pri-blog/do-us-companies-outsource-their-carbon-footprints-to-overseas-suppliers-to-maintain-competitiveness/9363.article"&gt;Do US companies outsource their carbon footprints to overseas suppliers to maintain competitiveness?&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Paper type</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/governance-issues/the-investor-case-for-responsible-political-engagement/9366.article"&gt;The investor case for responsible political engagement&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>discussion paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://cre.moodysanalytics.com/insights/research/climate-risk-and-commercial-real-estate-development-patterns/?utm_medium=Collateral&amp;utm_campaign=Blog&amp;utm_source=Affiliate&amp;utm_content=&amp;utm_term=Climate_Risk_Development_Patterns"&gt;Climate Risk and Commercial Real Estate Development Patterns&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>white paper</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Moodys</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ESG index service provider</t>
   </si>
   <si>
     <t>Year Published</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch//resources/public/dtc/media/roundup-2020-11-green-transition-en-web.pdf"&gt;SFI Roundup: Finance and the Green Transition&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Swiss Finance Institute</t>
   </si>
   <si>
     <t>&lt;a href="https://www.sfi.ch/resources/public/dtc/media/roundups-spec-iss-july-19-en.pdf"&gt;Practitioner Roundups Special Issue: Can Finance Make the Planet Greener?&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Publisher</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.mohrsiebeck.com/en/book/law-by-algorithm-9783161575099?no_cache=1"&gt;Law by Algorithm&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Horst Eidenmüller, Gerhard Wagner</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Mohr Siebeck</t>
   </si>
   <si>
     <t>&lt;a href="https://www.bloomsbury.com/uk/business-law-and-the-transition-to-a-net-zero-economy-9781509958962/"&gt;Business Law and the Transition to a Net Zero Economy&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Andreas Engert (Anthology Editor), Luca Enriques (Anthology Editor), Wolf-Georg Ringe (Anthology Editor), Umakanth Varottil (Anthology Editor), Thom Wetzer (Anthology Editor)</t>
@@ -226,14 +226,14 @@
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/research/podcasts/esg-now/forget-naughty-or-nice-santas-workshops-are-flooding"&gt;Forget Naughty or Nice – Santa’s Workshops are Flooding&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">MSCI </t>
   </si>
   <si>
     <t>&lt;a href="https://podcasts.apple.com/us/podcast/episode-5-the-relationship-between-the-e-and-the-s/id1573914445?i=1000545288876"&gt;RBS International 'A Just Transition' Podcast Series: Episode 5: The relationship between the E and the S on Apple Podcasts&lt;/a&gt;</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">RBS </t>
@@ -255,11 +255,11 @@
   </si>
   <si>
     <t>CFA Institute</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ECGI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CNBC</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>SSF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.youtube.com/watch?v=_8MsC7PFCv4"&gt;ESG investing doesn't work: Former BlackRock CIO&lt;/a&gt;</t>
@@ -285,11 +285,11 @@
   </si>
   <si>
     <t>Tweet</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>jordanbpeterson</t>
@@ -305,11 +305,11 @@
   </si>
   <si>
     <t>Job</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Co-founder, Strategy at Naava | Startup Scientist | #health #nature</t>
@@ -319,7 +319,7 @@
   </si>
   <si>
     <t>Location</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Finland</t>
@@ -329,7 +329,7 @@
   </si>
   <si>
     <t>USA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">Katie Koch </t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>coolbern</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.reddit.com/r/EsgInvesting/comments/s8kwy9/10_myths_in_energy_and_climate_world_2022_update/"&gt;10 Myths in #energy and climate world (2022 update)&lt;/a&gt;</t>
@@ -355,18 +355,18 @@
   </si>
   <si>
     <t>Position</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Organizaion</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Invesco</t>
   </si>
   <si>
     <t>United Kingdom</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.responsible-investor.com/jobs/invesco-esg-analyst-2871"&gt;Invesco / ESG Analyst&lt;/a&gt;</t>
@@ -376,11 +376,11 @@
   </si>
   <si>
     <t>RI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Post Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.sustainablefinance.ch/upload/cms/user/WerkstudentClientRelations19.01.2022.pdf"&gt;Werkstudent/in in Client Relations (40%)&lt;/a&gt;</t>
@@ -393,65 +393,65 @@
   </si>
   <si>
     <t>Zurich, Switzerland</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CFA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>real-world investing skills, incorporating ESG factors</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>understanding RI, applied RI, advanced RI analysis, RI for trustees</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Closing Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Job Board</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>HPS Investment Partners</t>
   </si>
   <si>
     <t>Inrate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>New York, United States</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>courses, company training</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>certificate</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Online</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Organizer</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>GRASFI</t>
   </si>
   <si>
     <t>GRI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.unpri.org/all-events-and-webinars/the-investor-agenda-investor-net-zero-targets-and-climate-action-plans-the-road-from-cop26/9032.article"&gt;The Investor Agenda: Investor net zero targets &amp; climate action plans - The road from COP26&lt;/a&gt;</t>
@@ -464,22 +464,22 @@
   </si>
   <si>
     <t>Category</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>USSIF</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Legislation</t>
   </si>
   <si>
     <t>EU Commission</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CDP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.ussif.org//Files/Public_Policy/US%20SIF%20ERISA%20ESG%20comment%20letter%2012-13-21.pdf"&gt;US SIF comment letter to DOL on ESG and proxy voting rulemaking &lt;/a&gt;</t>
@@ -498,26 +498,26 @@
   </si>
   <si>
     <t>Country</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Japan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Financial Reporting Council</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>UK</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SIX Exchange</t>
   </si>
   <si>
     <t>Switzerland</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://ecgi.global/node/9172"&gt;Japan’s Corporate Governance Code - Seeking Sustainable Corporate Growth and Increased Corporate Value over the Mid- to Long-Term&lt;/a&gt;</t>
@@ -530,55 +530,55 @@
   </si>
   <si>
     <t>Policy comment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Policy brief</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Corporate goverance code</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Ministry of Environment, Energy and Sea (France)</t>
   </si>
   <si>
     <t>France</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>EU</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>International</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Framework</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Science Based Targets Initiative</t>
   </si>
   <si>
     <t>Guidance</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://sciencebasedtargets.org/sectors/financial-institutions"&gt;Science Based Targets Initiative&lt;/a&gt;</t>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
   </si>
   <si>
     <t>S&amp;P Global</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.msci.com/our-solutions/indexes/esg-indexes"&gt;MSCI ESG Indexes&lt;/a&gt;</t>
@@ -591,34 +591,34 @@
   </si>
   <si>
     <t>MSCI</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SASB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>IIRC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CDSB</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Raphaël Semet, Thierry Roncalli, Lauren Stagnol</t>
   </si>
   <si>
     <t>LBS CCG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>University</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FTSE Russell</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>&lt;a href="https://www.london.edu/news/shareholder-value-and-stakeholder-capitalism-bridging-the-divide-2001"&gt;Shareholder value and stakeholder capitalism&lt;/a&gt;</t>
@@ -646,9 +646,6 @@
   </si>
   <si>
     <t>data library</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://www.ncdc.noaa.gov/wdcmet/data-and-information-access"&gt;World Data Center for Meteorology, Asheville&lt;/a&gt;</t>
   </si>
   <si>
     <t>US nation's archive for meteorological data and information</t>
@@ -877,6 +874,57 @@
   </si>
   <si>
     <t>&lt;a href="https://sciencebasedtargets.org"&gt;the Science Based Targets initiative (SBTi)&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.ncdc.noaa.gov"&gt;World Data Center for Meteorology, Asheville&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Refinitive</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.refinitiv.com/en/financial-data/indices/esg-index"&gt;Refinitiv/S-Network ESG Best Practices Indices&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Morningstar</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://indexes.morningstar.com/page/morningstar-sustainability-indexes"&gt;Morningstar Sustainability Indexes&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.bloomberg.com/professional/product/indices/bloomberg-esg-and-climate-indices/"&gt;Bloomberg ESG Indices&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Nasdaq</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://indexes.nasdaqomx.com/Index/Overview/NDXESG"&gt;Nasdaq-100 ESG Index&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.theice.com/market-data/indices/esg"&gt;ICE ESG-related indices&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Qontigo</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://qontigo.com/solutions/esg-indices/"&gt;Qontigo ESG indices&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>RAFI</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.rafi.com/index-strategies/rafi-esg-indices"&gt;RAFI ESG indices&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://ihsmarkit.com/products/esg-sustainable-indices.html"&gt;ESG and Sustainable Indices&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>IHS Markit</t>
   </si>
 </sst>
 </file>
@@ -886,13 +934,20 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,12 +1022,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -982,7 +1037,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -997,21 +1052,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1386,7 +1445,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1453,7 +1512,7 @@
       <c r="D9" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1523,7 +1582,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1576,7 +1635,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1685,7 +1744,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1706,10 +1765,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
         <v>87</v>
@@ -1723,7 +1782,7 @@
         <v>106</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -1737,7 +1796,7 @@
         <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C3" t="s">
         <v>98</v>
@@ -1748,56 +1807,56 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" t="s">
         <v>217</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>218</v>
-      </c>
-      <c r="D4" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>222</v>
-      </c>
-      <c r="D5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" t="s">
         <v>226</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="C6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" t="s">
         <v>228</v>
       </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" xr:uid="{F1A5D0A2-673E-304F-A897-067FEE624982}"/>
     <hyperlink ref="B5" r:id="rId2" xr:uid="{1CBAF31D-F364-6243-94A5-212EBD76A6D1}"/>
@@ -1879,7 +1938,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2052,7 +2111,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2061,18 +2120,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F45155-3C19-4540-B3F2-A65E99E761F5}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="64" customWidth="1"/>
+    <col min="1" max="1" width="103.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
         <v>15</v>
@@ -2080,7 +2139,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>153</v>
@@ -2088,7 +2147,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>155</v>
@@ -2096,7 +2155,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
@@ -2104,27 +2163,30 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>154</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C8B2DE-CDE0-4CE2-9096-C0AA343684A3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="177.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2158,8 +2220,72 @@
         <v>148</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" t="s">
+        <v>260</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2168,14 +2294,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708919BB-1ECF-C149-90E6-4514E4E287A9}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="11"/>
-    <col min="2" max="2" width="44" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="104.1640625" style="11" customWidth="1"/>
     <col min="3" max="3" width="53.5" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="11"/>
     <col min="5" max="5" width="89.6640625" style="11" customWidth="1"/>
@@ -2185,7 +2311,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>163</v>
@@ -2207,34 +2333,34 @@
       <c r="A2" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>168</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>174</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="85" x14ac:dyDescent="0.2">
@@ -2242,13 +2368,13 @@
         <v>168</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2256,13 +2382,13 @@
         <v>168</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2270,13 +2396,13 @@
         <v>168</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2284,13 +2410,13 @@
         <v>168</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2298,13 +2424,13 @@
         <v>168</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2312,13 +2438,13 @@
         <v>168</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2326,13 +2452,13 @@
         <v>168</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2340,13 +2466,13 @@
         <v>168</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -2354,110 +2480,110 @@
         <v>168</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="11">
         <v>2020</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D13" s="11">
         <v>2021</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>193</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D15" s="11">
         <v>2021</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="11">
         <v>2021</v>
       </c>
       <c r="E16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>203</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2640,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2717,7 +2843,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2824,7 +2950,7 @@
       <c r="B10" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2894,7 +3020,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2952,7 +3078,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3010,7 +3136,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3107,7 +3233,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3117,12 +3243,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.83203125" customWidth="1"/>
+    <col min="1" max="1" width="113.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3188,7 +3314,7 @@
       <c r="C7" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>